--- a/database/Margalef1958b.xlsx
+++ b/database/Margalef1958b.xlsx
@@ -473,7 +473,7 @@
     <t>Salines_de_Cubelles</t>
   </si>
   <si>
-    <t>wetland</t>
+    <t>Wetland</t>
   </si>
   <si>
     <t>Margalef1958b_014</t>
@@ -2185,7 +2185,7 @@
       <c r="J14" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
       <c r="L14" s="7" t="s">

--- a/database/Margalef1958b.xlsx
+++ b/database/Margalef1958b.xlsx
@@ -80,7 +80,7 @@
     <t>sample code (data code and sample number; data_001)</t>
   </si>
   <si>
-    <t>datasetID</t>
+    <t>collectionCode</t>
   </si>
   <si>
     <t>source code</t>
@@ -773,6 +773,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -781,9 +784,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1258,10 +1258,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1270,10 +1270,10 @@
       <c r="B33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1458,10 +1458,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1574,10 +1574,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1609,16 +1609,16 @@
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1653,13 +1653,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D2" s="12">
@@ -1674,19 +1674,19 @@
       <c r="G2" s="14">
         <v>-4.6135</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M2" s="15" t="s">
@@ -1695,18 +1695,18 @@
       <c r="N2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D3" s="12">
@@ -1718,10 +1718,10 @@
       <c r="G3" s="17">
         <v>0.499959</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1730,7 +1730,7 @@
       <c r="K3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M3" s="15" t="s">
@@ -1739,18 +1739,18 @@
       <c r="N3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="12">
@@ -1765,16 +1765,16 @@
       <c r="G4" s="17">
         <v>2.12637</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M4" s="15" t="s">
@@ -1783,18 +1783,18 @@
       <c r="N4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D5" s="12">
@@ -1806,10 +1806,10 @@
       <c r="G5" s="17">
         <v>0.653965</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1818,7 +1818,7 @@
       <c r="K5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M5" s="15" t="s">
@@ -1827,18 +1827,18 @@
       <c r="N5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="12">
@@ -1853,10 +1853,10 @@
       <c r="G6" s="17">
         <v>-3.599059</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1865,7 +1865,7 @@
       <c r="K6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M6" s="15" t="s">
@@ -1874,18 +1874,18 @@
       <c r="N6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="12">
@@ -1900,16 +1900,16 @@
       <c r="G7" s="17">
         <v>0.993446</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="8" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M7" s="15" t="s">
@@ -1918,18 +1918,18 @@
       <c r="N7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="12">
@@ -1944,16 +1944,16 @@
       <c r="G8" s="17">
         <v>0.819208</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="8" t="s">
         <v>140</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M8" s="15" t="s">
@@ -1962,18 +1962,18 @@
       <c r="N8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="12">
@@ -1988,16 +1988,16 @@
       <c r="G9" s="17">
         <v>1.935922</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M9" s="15" t="s">
@@ -2006,18 +2006,18 @@
       <c r="N9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="12">
@@ -2032,16 +2032,16 @@
       <c r="G10" s="17">
         <v>2.767645</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M10" s="15" t="s">
@@ -2050,18 +2050,18 @@
       <c r="N10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="12">
@@ -2076,16 +2076,16 @@
       <c r="G11" s="17">
         <v>1.327597</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>140</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M11" s="15" t="s">
@@ -2094,18 +2094,18 @@
       <c r="N11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="12">
@@ -2120,16 +2120,16 @@
       <c r="G12" s="17">
         <v>0.851589</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M12" s="15" t="s">
@@ -2138,18 +2138,18 @@
       <c r="N12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="12">
@@ -2164,10 +2164,10 @@
       <c r="G13" s="17">
         <v>-4.691464</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="8" t="s">
         <v>140</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2176,7 +2176,7 @@
       <c r="K13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M13" s="15" t="s">
@@ -2185,18 +2185,18 @@
       <c r="N13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="12">
@@ -2211,19 +2211,19 @@
       <c r="G14" s="19">
         <v>1.6512</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M14" s="15" t="s">
@@ -2232,18 +2232,18 @@
       <c r="N14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="12">
@@ -2258,16 +2258,16 @@
       <c r="G15" s="19">
         <v>1.6512</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M15" s="15" t="s">
@@ -2276,436 +2276,436 @@
       <c r="N15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="9"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="9"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="9"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="9"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="9"/>
+      <c r="O32" s="10"/>
     </row>
     <row r="33">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="9"/>
+      <c r="O33" s="10"/>
     </row>
     <row r="34">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="9"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="35">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="9"/>
+      <c r="O35" s="10"/>
     </row>
     <row r="36">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="9"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="9"/>
+      <c r="O37" s="10"/>
     </row>
     <row r="38">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="9"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="39">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="9"/>
+      <c r="O39" s="10"/>
     </row>
     <row r="40">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="9"/>
+      <c r="O40" s="10"/>
     </row>
     <row r="41">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="9"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="42">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="9"/>
+      <c r="O42" s="10"/>
     </row>
     <row r="43">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="9"/>
+      <c r="O43" s="10"/>
     </row>
     <row r="44">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="9"/>
+      <c r="O44" s="10"/>
     </row>
     <row r="45">
       <c r="D45" s="21"/>
@@ -6562,44 +6562,44 @@
       <c r="B1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>169</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="1">
@@ -6613,7 +6613,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="1">
@@ -6621,7 +6621,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="1">
@@ -6629,7 +6629,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C5" s="1">
@@ -6637,7 +6637,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="1">
@@ -6648,7 +6648,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>139</v>
       </c>
       <c r="F7" s="1">
@@ -6659,7 +6659,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>142</v>
       </c>
       <c r="F8" s="1">
@@ -6670,7 +6670,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>144</v>
       </c>
       <c r="H9" s="1">
@@ -6678,7 +6678,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>146</v>
       </c>
       <c r="H10" s="1">
@@ -6686,7 +6686,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>148</v>
       </c>
       <c r="H11" s="1">
@@ -6694,7 +6694,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="1">
@@ -6702,7 +6702,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="1">
@@ -6710,7 +6710,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J14" s="1"/>
@@ -6722,7 +6722,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
       <c r="I15" s="1">
@@ -6755,72 +6755,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6897,19 +6897,19 @@
       <c r="B2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -6924,69 +6924,69 @@
       <c r="L2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>176</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -6995,186 +6995,186 @@
       <c r="I4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>189</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -7186,33 +7186,33 @@
       <c r="I9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -7224,33 +7224,33 @@
       <c r="I10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -7262,52 +7262,52 @@
       <c r="I11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="10" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7318,16 +7318,16 @@
       <c r="B13" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -7345,47 +7345,47 @@
       <c r="L13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="11"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="11"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="11"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="11"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
+      <c r="A26" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
